--- a/static/uploaded file/EEE_113.xlsx
+++ b/static/uploaded file/EEE_113.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Flask Projects\Semester-Result-Maker\Some Demo Grade-Sheet Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC0BD06-DCF4-4017-80C9-1960ABE5C6E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1316CB38-16A1-4D73-BCB5-BD5E7E60649E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EE7248C0-851F-4A62-896A-C198D67E9386}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" xr2:uid="{EE7248C0-851F-4A62-896A-C198D67E9386}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="18">
   <si>
     <t>Grade</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>Credit</t>
+  </si>
+  <si>
+    <t>id</t>
   </si>
 </sst>
 </file>
@@ -433,13 +436,13 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -447,7 +450,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -455,7 +458,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -463,7 +466,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -471,7 +477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2011001</v>
       </c>
@@ -482,7 +488,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2011002</v>
       </c>
@@ -493,7 +499,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2011003</v>
       </c>
@@ -504,7 +510,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2011004</v>
       </c>
@@ -515,7 +521,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2011005</v>
       </c>
@@ -526,7 +532,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2011006</v>
       </c>
@@ -537,7 +543,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2011007</v>
       </c>
@@ -548,7 +554,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2011008</v>
       </c>
@@ -559,7 +565,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2011009</v>
       </c>
@@ -570,7 +576,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2011010</v>
       </c>
@@ -581,7 +587,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2011011</v>
       </c>
@@ -592,7 +598,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2011012</v>
       </c>
@@ -603,7 +609,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2011013</v>
       </c>
@@ -614,7 +620,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2011014</v>
       </c>
@@ -625,7 +631,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2011015</v>
       </c>
@@ -636,7 +642,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2011016</v>
       </c>
@@ -647,7 +653,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2011017</v>
       </c>
@@ -658,7 +664,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2011018</v>
       </c>
@@ -669,7 +675,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2011019</v>
       </c>
@@ -680,7 +686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2011020</v>
       </c>
@@ -691,7 +697,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2011021</v>
       </c>
@@ -702,7 +708,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2011022</v>
       </c>
@@ -713,7 +719,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2011023</v>
       </c>
@@ -724,7 +730,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2011024</v>
       </c>
@@ -735,7 +741,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2011025</v>
       </c>
@@ -746,7 +752,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2011026</v>
       </c>
@@ -757,7 +763,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2011027</v>
       </c>
@@ -768,7 +774,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2011028</v>
       </c>
@@ -779,7 +785,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2011029</v>
       </c>
@@ -790,7 +796,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2011030</v>
       </c>
